--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Mmp13</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Mmp13</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.103702</v>
+        <v>1.154926666666667</v>
       </c>
       <c r="H2">
-        <v>0.311106</v>
+        <v>3.46478</v>
       </c>
       <c r="I2">
-        <v>0.05630457964039605</v>
+        <v>0.9439377097772548</v>
       </c>
       <c r="J2">
-        <v>0.05630457964039604</v>
+        <v>0.9439377097772548</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>1.780203494060001</v>
+        <v>2.341169554875555</v>
       </c>
       <c r="R2">
-        <v>16.02183144654</v>
+        <v>21.07052599388</v>
       </c>
       <c r="S2">
-        <v>0.003155001203873855</v>
+        <v>0.006226481745720302</v>
       </c>
       <c r="T2">
-        <v>0.003155001203873854</v>
+        <v>0.006226481745720301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.103702</v>
+        <v>1.154926666666667</v>
       </c>
       <c r="H3">
-        <v>0.311106</v>
+        <v>3.46478</v>
       </c>
       <c r="I3">
-        <v>0.05630457964039605</v>
+        <v>0.9439377097772548</v>
       </c>
       <c r="J3">
-        <v>0.05630457964039604</v>
+        <v>0.9439377097772548</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>26.59378735167733</v>
+        <v>296.1743667442755</v>
       </c>
       <c r="R3">
-        <v>239.344086165096</v>
+        <v>2665.56930069848</v>
       </c>
       <c r="S3">
-        <v>0.04713137087421049</v>
+        <v>0.7876936056352937</v>
       </c>
       <c r="T3">
-        <v>0.04713137087421049</v>
+        <v>0.7876936056352936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.103702</v>
+        <v>1.154926666666667</v>
       </c>
       <c r="H4">
-        <v>0.311106</v>
+        <v>3.46478</v>
       </c>
       <c r="I4">
-        <v>0.05630457964039605</v>
+        <v>0.9439377097772548</v>
       </c>
       <c r="J4">
-        <v>0.05630457964039604</v>
+        <v>0.9439377097772548</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>3.395762295510667</v>
+        <v>56.40692522551779</v>
       </c>
       <c r="R4">
-        <v>30.561860659596</v>
+        <v>507.6623270296601</v>
       </c>
       <c r="S4">
-        <v>0.006018207562311695</v>
+        <v>0.1500176223962409</v>
       </c>
       <c r="T4">
-        <v>0.006018207562311694</v>
+        <v>0.1500176223962409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.154926666666667</v>
+        <v>0.06859333333333334</v>
       </c>
       <c r="H5">
-        <v>3.46478</v>
+        <v>0.20578</v>
       </c>
       <c r="I5">
-        <v>0.6270627421086428</v>
+        <v>0.05606229022274531</v>
       </c>
       <c r="J5">
-        <v>0.6270627421086427</v>
+        <v>0.05606229022274531</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>19.82608327113334</v>
+        <v>0.1390465977644444</v>
       </c>
       <c r="R5">
-        <v>178.4347494402</v>
+        <v>1.25141937988</v>
       </c>
       <c r="S5">
-        <v>0.03513717212512151</v>
+        <v>0.0003698028196983139</v>
       </c>
       <c r="T5">
-        <v>0.0351371721251215</v>
+        <v>0.0003698028196983138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.154926666666667</v>
+        <v>0.06859333333333334</v>
       </c>
       <c r="H6">
-        <v>3.46478</v>
+        <v>0.20578</v>
       </c>
       <c r="I6">
-        <v>0.6270627421086428</v>
+        <v>0.05606229022274531</v>
       </c>
       <c r="J6">
-        <v>0.6270627421086427</v>
+        <v>0.05606229022274531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
-        <v>296.1743667442755</v>
+        <v>17.59036971716445</v>
       </c>
       <c r="R6">
-        <v>2665.56930069848</v>
+        <v>158.31332745448</v>
       </c>
       <c r="S6">
-        <v>0.524900937871809</v>
+        <v>0.0467826500290439</v>
       </c>
       <c r="T6">
-        <v>0.524900937871809</v>
+        <v>0.04678265002904389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.154926666666667</v>
+        <v>0.06859333333333334</v>
       </c>
       <c r="H7">
-        <v>3.46478</v>
+        <v>0.20578</v>
       </c>
       <c r="I7">
-        <v>0.6270627421086428</v>
+        <v>0.05606229022274531</v>
       </c>
       <c r="J7">
-        <v>0.6270627421086427</v>
+        <v>0.05606229022274531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>37.81852258149777</v>
+        <v>3.350116622962223</v>
       </c>
       <c r="R7">
-        <v>340.3667032334799</v>
+        <v>30.15104960666001</v>
       </c>
       <c r="S7">
-        <v>0.06702463211171213</v>
+        <v>0.0089098373740031</v>
       </c>
       <c r="T7">
-        <v>0.06702463211171211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.5831753333333334</v>
-      </c>
-      <c r="H8">
-        <v>1.749526</v>
-      </c>
-      <c r="I8">
-        <v>0.3166326782509612</v>
-      </c>
-      <c r="J8">
-        <v>0.3166326782509612</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.16653000000001</v>
-      </c>
-      <c r="N8">
-        <v>51.49959000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.05603453971282792</v>
-      </c>
-      <c r="P8">
-        <v>0.05603453971282792</v>
-      </c>
-      <c r="Q8">
-        <v>10.01109685492667</v>
-      </c>
-      <c r="R8">
-        <v>90.09987169434002</v>
-      </c>
-      <c r="S8">
-        <v>0.01774236638383255</v>
-      </c>
-      <c r="T8">
-        <v>0.01774236638383255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.5831753333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.749526</v>
-      </c>
-      <c r="I9">
-        <v>0.3166326782509612</v>
-      </c>
-      <c r="J9">
-        <v>0.3166326782509612</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>256.4443053333333</v>
-      </c>
-      <c r="N9">
-        <v>769.332916</v>
-      </c>
-      <c r="O9">
-        <v>0.8370788162388805</v>
-      </c>
-      <c r="P9">
-        <v>0.8370788162388805</v>
-      </c>
-      <c r="Q9">
-        <v>149.5519932442018</v>
-      </c>
-      <c r="R9">
-        <v>1345.967939197816</v>
-      </c>
-      <c r="S9">
-        <v>0.2650465074928609</v>
-      </c>
-      <c r="T9">
-        <v>0.2650465074928609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.5831753333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.749526</v>
-      </c>
-      <c r="I10">
-        <v>0.3166326782509612</v>
-      </c>
-      <c r="J10">
-        <v>0.3166326782509612</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>32.74538866666666</v>
-      </c>
-      <c r="N10">
-        <v>98.236166</v>
-      </c>
-      <c r="O10">
-        <v>0.1068866440482915</v>
-      </c>
-      <c r="P10">
-        <v>0.1068866440482915</v>
-      </c>
-      <c r="Q10">
-        <v>19.09630295081289</v>
-      </c>
-      <c r="R10">
-        <v>171.866726557316</v>
-      </c>
-      <c r="S10">
-        <v>0.03384380437426771</v>
-      </c>
-      <c r="T10">
-        <v>0.03384380437426771</v>
+        <v>0.008909837374003098</v>
       </c>
     </row>
   </sheetData>
